--- a/data/income_statement/3digits/total/161_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/161_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>161-Sawmilling and planning of wood</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>161-Sawmilling and planning of wood</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>584559.60864</v>
@@ -962,37 +868,42 @@
         <v>892574.12728</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>956532.1870299999</v>
+        <v>957106.3142500001</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>1020128.80518</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1170584.9546</v>
+        <v>1171701.85014</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1284991.27949</v>
+        <v>1285011.43741</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1560910.96866</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1798276.57328</v>
+        <v>1804961.61277</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1891766.55745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1953220.26786</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2686055.305</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>564202.35722</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>596961.8653200001</v>
+        <v>596961.86532</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>762043.08812</v>
@@ -1001,31 +912,36 @@
         <v>861006.58505</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>927353.7806899999</v>
+        <v>927927.90791</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>987819.88858</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1130736.61234</v>
+        <v>1131853.50788</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1240689.55584</v>
+        <v>1240709.71376</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1503128.24225</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1703054.59769</v>
+        <v>1707291.5248</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1726625.33774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1786009.98965</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2429349.946</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>13853.09921</v>
@@ -1055,16 +971,21 @@
         <v>36097.61845</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>64452.08752000001</v>
+        <v>66884.88722</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>131296.0661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>133065.98976</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>223229.017</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>6504.152210000001</v>
@@ -1076,10 +997,10 @@
         <v>10540.83455</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7568.118510000001</v>
+        <v>7568.118509999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7467.341119999999</v>
+        <v>7467.34112</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>11281.5564</v>
@@ -1094,16 +1015,21 @@
         <v>21685.10796</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>30769.88807</v>
+        <v>30785.20075</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33845.15361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34144.28844999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>33476.342</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2153.03596</v>
@@ -1136,13 +1062,18 @@
         <v>7449.347330000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12931.11647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12936.26813</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>56728.666</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1965.54472</v>
@@ -1160,28 +1091,33 @@
         <v>3377.18328</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2754.916520000001</v>
+        <v>2754.91652</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4153.653410000001</v>
+        <v>4153.65341</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5429.155119999999</v>
+        <v>5429.15512</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>7769.502109999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6583.09245</v>
+        <v>6583.092449999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11467.52602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11471.55418</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>55688.044</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>164.28172</v>
@@ -1196,13 +1132,13 @@
         <v>125.33461</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>591.3607900000001</v>
+        <v>591.36079</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>691.2139099999999</v>
+        <v>691.2139100000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>610.9803999999999</v>
+        <v>610.9804</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>526.27687</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1298.86346</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>756.367</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23.20952</v>
@@ -1253,13 +1194,18 @@
         <v>114.63457</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>164.72699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>165.85049</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>284.255</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>582406.5726800001</v>
@@ -1268,40 +1214,45 @@
         <v>614344.91638</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>783870.8068200001</v>
+        <v>783870.8068199999</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>888626.0975800001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>952312.24515</v>
+        <v>952886.37237</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>1016568.68197</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1165654.35782</v>
+        <v>1166771.25336</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1279004.83739</v>
+        <v>1279024.99531</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1552534.66149</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1790827.22595</v>
+        <v>1797512.26544</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1878835.44098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1940283.99973</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2629326.639</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>500998.2714500001</v>
+        <v>500998.2714499999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>531258.5848899999</v>
@@ -1313,31 +1264,36 @@
         <v>763959.75053</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>814160.0635599999</v>
+        <v>814705.9328299999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>870769.3906499998</v>
+        <v>870769.39065</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>996688.2881200002</v>
+        <v>997631.3660799999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1089820.37226</v>
+        <v>1089835.42932</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1325368.03877</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1518668.01758</v>
+        <v>1523664.56253</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1607120.05005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1663480.43904</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2252791.185</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>268375.02347</v>
@@ -1352,7 +1308,7 @@
         <v>482705.78587</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>498899.9247800001</v>
+        <v>499438.99184</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>567079.8602</v>
@@ -1367,16 +1323,21 @@
         <v>865824.6311900001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>974001.7430999998</v>
+        <v>974184.56496</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1115106.41111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1120189.35186</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1518531.114</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>208679.27037</v>
@@ -1397,25 +1358,30 @@
         <v>265702.60777</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>313139.68604</v>
+        <v>313694.2024600001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>324393.06081</v>
+        <v>324408.11787</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>407532.5485499999</v>
+        <v>407532.54855</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>470937.92247</v>
+        <v>475680.15301</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>415356.86225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>456666.4462</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>623769.89</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>22058.4096</v>
@@ -1424,19 +1390,19 @@
         <v>20295.99011</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>24426.2943</v>
+        <v>24426.29430000001</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>26038.90361</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>25059.91705</v>
+        <v>25066.71926</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>31755.36911</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>28256.03169</v>
+        <v>28644.59323</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>34524.83135</v>
@@ -1445,16 +1411,21 @@
         <v>44481.29629</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>61049.29290000001</v>
+        <v>61120.78545</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>63423.11386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>73390.97815000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>95578.21400000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1885.56801</v>
@@ -1469,13 +1440,13 @@
         <v>4218.26462</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5284.803940000001</v>
+        <v>5284.80394</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>6231.55357</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7948.47211</v>
+        <v>7948.472110000001</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>9726.65711</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>13233.66283</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>14911.967</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>81408.30123</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>83086.33149</v>
+        <v>83086.33149000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>109306.75715</v>
@@ -1508,31 +1484,36 @@
         <v>124666.34705</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>138152.18159</v>
+        <v>138180.43954</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>145799.29132</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>168966.0697</v>
+        <v>169139.88728</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>189184.46513</v>
+        <v>189189.56599</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>227166.62272</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>272159.20837</v>
+        <v>273847.7029100001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>271715.3909299999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>276803.56069</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>376535.454</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>55348.55245</v>
@@ -1541,37 +1522,42 @@
         <v>60166.2121</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>75336.90046</v>
+        <v>75336.90045999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>83390.34134999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>85712.16296</v>
+        <v>85729.91109000001</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>93456.18448000001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>103596.27347</v>
+        <v>103761.39866</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>116553.40634</v>
+        <v>116882.38259</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>133349.15889</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>155261.895</v>
+        <v>156723.42118</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>182823.5595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>186868.82459</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>221500.758</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>9.115129999999999</v>
@@ -1601,16 +1587,21 @@
         <v>0.4179</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>0.68</v>
+        <v>14.60235</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>11999.79353</v>
@@ -1640,19 +1631,24 @@
         <v>41715.45105</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>49135.16722</v>
+        <v>49212.23097</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>52868.02853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>54507.58197</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>59965.492</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>43339.64379000001</v>
+        <v>43339.64379</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>43378.97962999999</v>
@@ -1661,34 +1657,39 @@
         <v>55652.86842</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>60291.78142</v>
+        <v>60291.78141999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>60716.79976000001</v>
+        <v>60734.54789</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>67638.91869999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>72188.78814</v>
+        <v>72353.91333</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>80402.63326</v>
+        <v>80731.60950999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>91633.28994</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>106126.04778</v>
+        <v>107496.58786</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>129955.53097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>132361.24262</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>161535.266</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>26059.74878</v>
@@ -1703,31 +1704,36 @@
         <v>41276.0057</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>52440.01863000001</v>
+        <v>52450.52845000001</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>52343.10684</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>65369.79623000001</v>
+        <v>65378.48862</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>72631.05879</v>
+        <v>72307.18340000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>93817.46382999999</v>
+        <v>93817.46383000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>116897.31337</v>
+        <v>117124.28173</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>88891.83143000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>89934.73609999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>155034.696</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>11345.93707</v>
@@ -1748,25 +1754,30 @@
         <v>13202.5881</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>18451.0911</v>
+        <v>18465.93447</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>13771.32317</v>
+        <v>14112.47019</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>16200.47274</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>44721.40656</v>
+        <v>44802.52797</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>29786.06933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>29804.81546</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>37426.955</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>66.39004000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>822.59202</v>
@@ -1859,7 +1880,7 @@
         <v>305.35542</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>684.7193599999998</v>
+        <v>684.7193599999999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>740.31994</v>
@@ -1868,22 +1889,27 @@
         <v>901.6472</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1067.332</v>
+        <v>1259.47233</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1302.82266</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3417.93098</v>
+        <v>3459.57844</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6721.7436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6774.871689999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4837.603</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1907,7 +1933,7 @@
         <v>71.80992000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>92.66025999999999</v>
+        <v>92.66026000000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>33.71569</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>81.46781999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>98.376</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>305.5563299999999</v>
+        <v>305.55633</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>194.75706</v>
@@ -1943,10 +1974,10 @@
         <v>1122.07263</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>77.65599</v>
+        <v>77.65598999999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>137.36507</v>
+        <v>212.46064</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>322.23835</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>309.63818</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>654.429</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>92.78627</v>
@@ -1985,7 +2021,7 @@
         <v>418.15095</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8.244399999999999</v>
+        <v>38.75657999999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>46.78042</v>
@@ -1994,19 +2030,24 @@
         <v>127.0513</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>517.5930699999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>517.59307</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1811.762</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6708.88269</v>
+        <v>6708.882689999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6118.163610000001</v>
+        <v>6118.16361</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>5528.282929999999</v>
@@ -2018,13 +2059,13 @@
         <v>5318.32353</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6259.367130000001</v>
+        <v>6259.36713</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13034.76312</v>
+        <v>13049.60649</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7639.99667</v>
+        <v>7683.39561</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>9476.619480000001</v>
@@ -2033,13 +2074,18 @@
         <v>34529.42111</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11439.04414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11455.19972</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>23333.535</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>700.46356</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>117.49</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.1216</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2645.14456</v>
+        <v>2645.144560000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>2611.75224</v>
@@ -2147,16 +2203,21 @@
         <v>4737.67224</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6279.954229999999</v>
+        <v>6319.42818</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10716.58252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10666.04498</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>6573.76</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10772.55356</v>
@@ -2168,7 +2229,7 @@
         <v>14321.65203</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7179.97271</v>
+        <v>7179.972710000001</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>15081.95021</v>
@@ -2177,28 +2238,33 @@
         <v>11076.04664</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>24993.57894</v>
+        <v>24996.28368</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>22437.28002</v>
+        <v>22598.52584</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>22334.85186</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>49437.46359000001</v>
+        <v>49437.61879000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15883.63766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15888.54422</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>35756.83</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>91.27804999999999</v>
+        <v>91.27805000000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>114.72383</v>
@@ -2216,7 +2282,7 @@
         <v>130.88374</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>86.11103000000001</v>
+        <v>86.11103</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>145.32763</v>
@@ -2228,13 +2294,18 @@
         <v>203.59762</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>118.39542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>123.30162</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>232.472</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1697.46366</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>448.75274</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1281.89</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>35.34881</v>
@@ -2297,7 +2373,7 @@
         <v>391.8680600000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>20.5392</v>
+        <v>158.8392</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.47457</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>24.51503</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>121.57</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7386.721810000001</v>
+        <v>7386.72181</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5052.620359999999</v>
+        <v>5052.62036</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>11446.40319</v>
@@ -2333,10 +2414,10 @@
         <v>7077.06842</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>21273.60396</v>
+        <v>21276.3087</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19994.05209</v>
+        <v>20016.99791</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>20637.71603</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>14860.47873</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>33233.643</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>746.2505699999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>42.17074</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>73.76600000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.13865</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>815.3520100000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>314.6670700000001</v>
+        <v>314.66707</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>489.07588</v>
@@ -2444,13 +2540,13 @@
         <v>240.12107</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>561.6041599999999</v>
+        <v>561.60416</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>322.96864</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>359.5560700000001</v>
+        <v>359.55607</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>709.8852000000001</v>
@@ -2459,16 +2555,21 @@
         <v>401.36974</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>203.37869</v>
+        <v>203.53389</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>389.3249999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>389.32536</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>813.489</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>17963.42054</v>
@@ -2489,25 +2590,30 @@
         <v>22359.08172</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31739.40121</v>
+        <v>31751.83673</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>36232.68472</v>
+        <v>36232.83294</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>47439.42881999999</v>
+        <v>47439.42882</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>80709.70213999999</v>
+        <v>80731.19606</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>67285.25878999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>67541.35308</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>77653.38800000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>16616.91845</v>
@@ -2528,25 +2634,30 @@
         <v>21054.35767</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30043.87294</v>
+        <v>30056.30846</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>34086.26273</v>
+        <v>34086.41095</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>45851.6814</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>77721.82373999999</v>
+        <v>77743.31766</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>65853.4688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>66109.56309000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>70638.693</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1346.50209</v>
@@ -2561,7 +2672,7 @@
         <v>1485.70935</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>965.74558</v>
+        <v>965.7455799999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>1304.72405</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1431.78999</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>7014.695</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>8669.71175</v>
@@ -2600,31 +2716,36 @@
         <v>24434.5454</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>29870.03684</v>
+        <v>29880.54666</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>32110.56658</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>27087.90718</v>
+        <v>27096.30268</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>27732.41722</v>
+        <v>27588.29481</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>40243.65588999999</v>
+        <v>40243.65589</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>31471.5542</v>
+        <v>31757.99485</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>35509.00431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>36309.65426</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>79051.433</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3819.36369</v>
@@ -2645,25 +2766,30 @@
         <v>4375.35521</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7149.82766</v>
+        <v>7186.83664</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17539.03677</v>
+        <v>17541.22039</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>11288.06961</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10698.32561</v>
+        <v>10704.19021</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>20467.47067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>20678.76396</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>17058.418</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>32.66905</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>374.14626</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3786.69464</v>
@@ -2723,25 +2854,30 @@
         <v>4363.40542</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7142.46134</v>
+        <v>7179.470320000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17312.0645</v>
+        <v>17314.24812</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>11233.60329</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8907.527969999999</v>
+        <v>8913.39257</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20093.32441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>20304.6177</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17058.418</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2273.03737</v>
@@ -2750,7 +2886,7 @@
         <v>2415.30808</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>5858.319519999999</v>
+        <v>5858.319520000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>3754.23928</v>
@@ -2765,22 +2901,27 @@
         <v>5249.73607</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8875.032140000001</v>
+        <v>8875.954390000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6522.916490000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>10647.09116</v>
+        <v>10725.66644</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>12600.46213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12656.37761</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10178.795</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>112.48315</v>
@@ -2798,7 +2939,7 @@
         <v>140.77908</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>515.9434600000001</v>
+        <v>515.94346</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>250.77001</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>605.02799</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>357.463</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>124.09572</v>
@@ -2843,7 +2989,7 @@
         <v>45.23773</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>137.93469</v>
+        <v>138.85694</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>50.95408</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>322.2979</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>168.889</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2036.4585</v>
@@ -2879,7 +3030,7 @@
         <v>7614.40598</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4953.72833</v>
+        <v>4953.728329999999</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>8650.5067</v>
@@ -2888,16 +3039,21 @@
         <v>6254.08754</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>9751.766</v>
+        <v>9830.341280000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11673.13624</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11729.05172</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>9652.442999999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>10216.03807</v>
@@ -2912,31 +3068,36 @@
         <v>33352.36339</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>34474.79221</v>
+        <v>34485.30203</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>27906.16212</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>28987.99877</v>
+        <v>29033.40325</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>36396.42185</v>
+        <v>36253.56081</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>45008.80901</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>31522.78865</v>
+        <v>31736.51862</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>43376.01285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>44332.04061</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>85931.056</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2515.00923</v>
@@ -2948,7 +3109,7 @@
         <v>4259.80743</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5593.647559999999</v>
+        <v>5593.64756</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>6885.69859</v>
@@ -2957,61 +3118,69 @@
         <v>6766.097870000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6436.61447</v>
+        <v>6448.986890000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7618.01874</v>
+        <v>7629.01259</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7698.357619999999</v>
+        <v>7698.35762</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10428.03762</v>
+        <v>10435.31878</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9359.12376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9629.839539999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>18145.799</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7701.028840000001</v>
+        <v>7701.02884</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>13982.58337</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>9860.16165</v>
+        <v>9860.161649999998</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>27758.71583</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>27589.09362</v>
+        <v>27599.60344</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>21140.06425</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>22551.3843</v>
+        <v>22584.41636</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>28778.40311</v>
+        <v>28624.54822</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>37310.45139</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>21094.75103</v>
+        <v>21301.19984</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>34016.88909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>34702.20107</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>67785.257</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>735</v>
@@ -3044,28 +3216,31 @@
         <v>705</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>619</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>649</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>666</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>